--- a/analysis_specifications/analysis2_gowtham_1.xlsx
+++ b/analysis_specifications/analysis2_gowtham_1.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,409 +372,489 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+          <t>Tuberculosis</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>667</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guttate psoriasis</t>
+          <t>Respiratory or pulmonary tuberculosis</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>723</v>
+        <v>119</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>729</v>
+        <v>251</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+          <t>Acute pancreatitis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>735</v>
+        <v>334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Asthma</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>744</v>
+        <v>405</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pulmonary Hypertension</t>
+          <t>Atrial Fibrillation or Flutter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>745</v>
+        <v>667</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Guttate psoriasis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Cirrhosis of liver or its sequela</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Hepatic fibrosis</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Acute Hepatic Injury</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>766</v>
+        <v>723</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>767</v>
+        <v>729</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>769</v>
+        <v>735</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Pulmonary Hypertension</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>858</v>
+        <v>745</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>859</v>
+        <v>748</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>860</v>
+        <v>749</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>862</v>
+        <v>765</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>892</v>
+        <v>766</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>919</v>
+        <v>767</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>920</v>
+        <v>769</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Scleroderma</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>923</v>
+        <v>770</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>934</v>
+        <v>858</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>956</v>
+        <v>859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>957</v>
+        <v>860</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>989</v>
+        <v>862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1003</v>
+        <v>892</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1007</v>
+        <v>919</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>Person with cardiac arrhythmia</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1009</v>
+        <v>920</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1011</v>
+        <v>923</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1013</v>
+        <v>934</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1020</v>
+        <v>956</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>Transient ischemic attack events</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1026</v>
+        <v>957</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>Persons with type 2 diabetes mellitus</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1027</v>
+        <v>989</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Earliest event of Urothelial carcinoma</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
+          <t>Earliest event of Epilepsy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
+          <t>Earliest event of Marginal zone lymphoma</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1081</v>
+        <v>1013</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1083</v>
+        <v>1020</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>1026</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Earliest Event of Multiple Sclerosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>1027</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1028</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Earliest event of Urothelial carcinoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1029</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>1030</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Earliest event of Prostate cancer, among adult males</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>1031</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1081</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction including its complications</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>1083</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Immune Thrombocytopenia (ITP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
         <v>1087</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Hemorrhagic Stroke</t>
         </is>

--- a/analysis_specifications/analysis2_gowtham_1.xlsx
+++ b/analysis_specifications/analysis2_gowtham_1.xlsx
@@ -867,7 +867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -918,27 +918,14 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>347</v>
+        <v>707</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ambulance utilization</t>
+          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>707</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
-        </is>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_gowtham_1.xlsx
+++ b/analysis_specifications/analysis2_gowtham_1.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,479 +382,409 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Respiratory or pulmonary tuberculosis</t>
+          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+          <t>Acute pancreatitis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acute pancreatitis</t>
+          <t>Asthma</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma</t>
+          <t>Atrial Fibrillation or Flutter</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>405</v>
+        <v>710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atrial Fibrillation or Flutter</t>
+          <t>Cirrhosis of liver or its sequela</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guttate psoriasis</t>
+          <t>Hepatic fibrosis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cirrhosis of liver or its sequela</t>
+          <t>Acute Hepatic Injury</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hepatic fibrosis</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Acute Hepatic Injury</t>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+          <t>Pulmonary Hypertension</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pulmonary Hypertension</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>Scleroderma</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>770</v>
+        <v>859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>860</v>
+        <v>923</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>892</v>
+        <v>989</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>919</v>
+        <v>1003</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>920</v>
+        <v>1007</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Earliest event of Epilepsy</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>923</v>
+        <v>1009</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>934</v>
+        <v>1011</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Earliest event of Marginal zone lymphoma</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>956</v>
+        <v>1013</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>957</v>
+        <v>1020</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>989</v>
+        <v>1026</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>Earliest Event of Multiple Sclerosis</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>Earliest event of Urothelial carcinoma</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>Earliest event of Prostate cancer, among adult males</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1026</v>
+        <v>1083</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>Immune Thrombocytopenia (ITP)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1027</v>
+        <v>1087</v>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>1028</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Earliest event of Urothelial carcinoma</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>1029</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>1030</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>1031</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>1081</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction including its complications</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>1083</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>1087</v>
-      </c>
-      <c r="B50" t="inlineStr">
         <is>
           <t>Hemorrhagic Stroke</t>
         </is>
@@ -867,7 +797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,6 +859,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>1150</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emergency room visits (0Pe, 0Era)</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>9999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis_specifications/analysis2_gowtham_1.xlsx
+++ b/analysis_specifications/analysis2_gowtham_1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HowOften\analysis_specifications\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,13 +15,159 @@
     <sheet name="targets" sheetId="1" r:id="rId1"/>
     <sheet name="outcomes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+  <si>
+    <t>cohort_definition_id</t>
+  </si>
+  <si>
+    <t>cohort_definition_name</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+  </si>
+  <si>
+    <t>Acute pancreatitis</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Atrial Fibrillation or Flutter</t>
+  </si>
+  <si>
+    <t>Cirrhosis of liver or its sequela</t>
+  </si>
+  <si>
+    <t>Hepatic fibrosis</t>
+  </si>
+  <si>
+    <t>Acute Hepatic Injury</t>
+  </si>
+  <si>
+    <t>Earliest event of Acute Hepatic Failure</t>
+  </si>
+  <si>
+    <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+  </si>
+  <si>
+    <t>All events of Acute Liver Injury</t>
+  </si>
+  <si>
+    <t>Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>Psoriatic arthritis</t>
+  </si>
+  <si>
+    <t>Plaque Psoriasis</t>
+  </si>
+  <si>
+    <t>Left Heart Failure</t>
+  </si>
+  <si>
+    <t>Right Heart Failure</t>
+  </si>
+  <si>
+    <t>Sarcoidosis</t>
+  </si>
+  <si>
+    <t>Scleroderma</t>
+  </si>
+  <si>
+    <t>Essential Hypertension</t>
+  </si>
+  <si>
+    <t>Earliest event of Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Earliest event of Crohns disease</t>
+  </si>
+  <si>
+    <t>Earliest event of Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+  </si>
+  <si>
+    <t>Persons with chronic kidney disease</t>
+  </si>
+  <si>
+    <t>Persons with heart failure</t>
+  </si>
+  <si>
+    <t>Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Renal Cancer</t>
+  </si>
+  <si>
+    <t>Earliest event of Epilepsy</t>
+  </si>
+  <si>
+    <t>Earliest event of Treatment resistant depression (TRD)</t>
+  </si>
+  <si>
+    <t>Earliest event of Marginal zone lymphoma</t>
+  </si>
+  <si>
+    <t>Earliest event of Ankylosing Spondylitis</t>
+  </si>
+  <si>
+    <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+  </si>
+  <si>
+    <t>Earliest Event of Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Earliest event of Chronic Leukocytic Leukemia</t>
+  </si>
+  <si>
+    <t>Earliest event of Urothelial carcinoma</t>
+  </si>
+  <si>
+    <t>Earliest event of Mantle Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Earliest event of Prostate cancer, among adult males</t>
+  </si>
+  <si>
+    <t>Earliest event of Coronary artery disease (CAD)</t>
+  </si>
+  <si>
+    <t>Acute Myocardial Infarction including its complications</t>
+  </si>
+  <si>
+    <t>Immune Thrombocytopenia (ITP)</t>
+  </si>
+  <si>
+    <t>Hemorrhagic Stroke</t>
+  </si>
+  <si>
+    <t>clean_window</t>
+  </si>
+  <si>
+    <t>Emergency room visits (0Pe, 0Era)</t>
+  </si>
+  <si>
+    <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
+  </si>
+  <si>
+    <t>Inpatient Hospitalization (0Pe, 1Era)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +215,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -110,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,522 +512,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tuberculosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>119</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>251</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Acute pancreatitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>334</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Asthma</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>405</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Atrial Fibrillation or Flutter</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>710</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cirrhosis of liver or its sequela</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>715</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hepatic fibrosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>716</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Acute Hepatic Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>723</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>729</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>735</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>All events of Acute Liver Injury</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>744</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pulmonary Hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>745</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Inflammatory Bowel Disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+        <v>748</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>748</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Psoriatic arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+        <v>749</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>749</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Plaque Psoriasis</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+        <v>765</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>765</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Left Heart Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>766</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>766</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Right Heart Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+        <v>767</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>767</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sarcoidosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>769</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Scleroderma</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+        <v>770</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>770</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Essential Hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+        <v>858</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>858</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+        <v>859</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>859</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Earliest event of Crohns disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+        <v>860</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>860</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Earliest event of Ulcerative colitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+        <v>862</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>862</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+        <v>923</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>923</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Persons with chronic kidney disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+        <v>934</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>934</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Persons with heart failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+        <v>989</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>989</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Bladder Cancer</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+        <v>1003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1003</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Renal Cancer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+        <v>1007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1007</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Earliest event of Epilepsy</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+        <v>1009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1009</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+        <v>1011</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1011</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+        <v>1013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1013</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+        <v>1020</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1020</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+        <v>1026</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1026</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+        <v>1027</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1027</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+        <v>1028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1028</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Earliest event of Urothelial carcinoma</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+        <v>1029</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1029</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+        <v>1030</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1030</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+        <v>1031</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1031</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+        <v>1081</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1081</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction including its complications</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+        <v>1083</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1083</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
         <v>1087</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Hemorrhagic Stroke</t>
-        </is>
+      <c r="B42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>clean_window</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Emergency room visits (0Pe, 0Era)</t>
-        </is>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>346</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
-        </is>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>707</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
-        </is>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1150</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Emergency room visits (0Pe, 0Era)</t>
-        </is>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
         <v>9999</v>

--- a/analysis_specifications/analysis2_gowtham_1.xlsx
+++ b/analysis_specifications/analysis2_gowtham_1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HowOften\analysis_specifications\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -15,159 +10,13 @@
     <sheet name="targets" sheetId="1" r:id="rId1"/>
     <sheet name="outcomes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
-  <si>
-    <t>cohort_definition_id</t>
-  </si>
-  <si>
-    <t>cohort_definition_name</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
-  </si>
-  <si>
-    <t>Acute pancreatitis</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Atrial Fibrillation or Flutter</t>
-  </si>
-  <si>
-    <t>Cirrhosis of liver or its sequela</t>
-  </si>
-  <si>
-    <t>Hepatic fibrosis</t>
-  </si>
-  <si>
-    <t>Acute Hepatic Injury</t>
-  </si>
-  <si>
-    <t>Earliest event of Acute Hepatic Failure</t>
-  </si>
-  <si>
-    <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
-  </si>
-  <si>
-    <t>All events of Acute Liver Injury</t>
-  </si>
-  <si>
-    <t>Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>Psoriatic arthritis</t>
-  </si>
-  <si>
-    <t>Plaque Psoriasis</t>
-  </si>
-  <si>
-    <t>Left Heart Failure</t>
-  </si>
-  <si>
-    <t>Right Heart Failure</t>
-  </si>
-  <si>
-    <t>Sarcoidosis</t>
-  </si>
-  <si>
-    <t>Scleroderma</t>
-  </si>
-  <si>
-    <t>Essential Hypertension</t>
-  </si>
-  <si>
-    <t>Earliest event of Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Earliest event of Crohns disease</t>
-  </si>
-  <si>
-    <t>Earliest event of Ulcerative colitis</t>
-  </si>
-  <si>
-    <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
-  </si>
-  <si>
-    <t>Persons with chronic kidney disease</t>
-  </si>
-  <si>
-    <t>Persons with heart failure</t>
-  </si>
-  <si>
-    <t>Bladder Cancer</t>
-  </si>
-  <si>
-    <t>Renal Cancer</t>
-  </si>
-  <si>
-    <t>Earliest event of Epilepsy</t>
-  </si>
-  <si>
-    <t>Earliest event of Treatment resistant depression (TRD)</t>
-  </si>
-  <si>
-    <t>Earliest event of Marginal zone lymphoma</t>
-  </si>
-  <si>
-    <t>Earliest event of Ankylosing Spondylitis</t>
-  </si>
-  <si>
-    <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
-  </si>
-  <si>
-    <t>Earliest Event of Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>Earliest event of Chronic Leukocytic Leukemia</t>
-  </si>
-  <si>
-    <t>Earliest event of Urothelial carcinoma</t>
-  </si>
-  <si>
-    <t>Earliest event of Mantle Cell Lymphoma</t>
-  </si>
-  <si>
-    <t>Earliest event of Prostate cancer, among adult males</t>
-  </si>
-  <si>
-    <t>Earliest event of Coronary artery disease (CAD)</t>
-  </si>
-  <si>
-    <t>Acute Myocardial Infarction including its complications</t>
-  </si>
-  <si>
-    <t>Immune Thrombocytopenia (ITP)</t>
-  </si>
-  <si>
-    <t>Hemorrhagic Stroke</t>
-  </si>
-  <si>
-    <t>clean_window</t>
-  </si>
-  <si>
-    <t>Emergency room visits (0Pe, 0Era)</t>
-  </si>
-  <si>
-    <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
-  </si>
-  <si>
-    <t>Inpatient Hospitalization (0Pe, 1Era)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +64,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -269,7 +110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,10 +142,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,415 +351,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cohort_definition_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cohort_definition_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tuberculosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>251</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acute pancreatitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>334</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>405</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atrial Fibrillation or Flutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>710</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cirrhosis of liver or its sequela</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>715</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>716</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acute Hepatic Injury</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>723</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Earliest event of Acute Hepatic Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>729</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>735</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>All events of Acute Liver Injury</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>744</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>748</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Psoriatic arthritis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>749</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Plaque Psoriasis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>765</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Left Heart Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>766</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Right Heart Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>767</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sarcoidosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>769</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Scleroderma</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>770</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Essential Hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
+        <v>775</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Inflammatory Bowel Disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>858</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Earliest event of Rheumatoid Arthritis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
         <v>859</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Earliest event of Crohns disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
         <v>860</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Earliest event of Ulcerative colitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
         <v>862</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
         <v>923</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Persons with chronic kidney disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>934</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Persons with heart failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
         <v>989</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bladder Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
         <v>1003</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Renal Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
         <v>1007</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Earliest event of Epilepsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>1009</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
         <v>1011</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Earliest event of Marginal zone lymphoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
         <v>1013</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Earliest event of Ankylosing Spondylitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>1020</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
         <v>1026</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Earliest Event of Multiple Sclerosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
         <v>1027</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
         <v>1028</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Earliest event of Urothelial carcinoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
         <v>1029</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
         <v>1030</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Earliest event of Prostate cancer, among adult males</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>1031</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
         <v>1081</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction including its complications</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>1083</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Immune Thrombocytopenia (ITP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
         <v>1087</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hemorrhagic Stroke</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cohort_definition_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cohort_definition_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>clean_window</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Emergency room visits (0Pe, 0Era)</t>
+        </is>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>346</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
+        </is>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>707</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
+        </is>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>1150</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emergency room visits (0Pe, 0Era)</t>
+        </is>
       </c>
       <c r="C5">
         <v>9999</v>
